--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prueba-excel-github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7729E58-B6D1-49DA-8E87-17E59C9F144E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD3922F-5742-4A68-83E0-211F2F9C49EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{2E3871B4-DD20-4C47-971B-1E3AE933CA00}"/>
   </bookViews>
@@ -36,9 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>hola</t>
+  </si>
+  <si>
+    <t>adios</t>
   </si>
 </sst>
 </file>
@@ -410,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F123F8-24E3-407A-B1E9-53538847BF0F}">
-  <dimension ref="C7"/>
+  <dimension ref="C7:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,6 +426,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="11">
   <si>
     <t>Fecha</t>
   </si>
@@ -1190,6 +1190,61 @@
         <v>7</v>
       </c>
     </row>
+    <row r="81">
+      <c r="A81" s="2">
+        <v>45878.78099537037</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2">
+        <v>45881.94194444444</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2">
+        <v>45879.503703703704</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2">
+        <v>45879.79789351852</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2">
+        <v>45878.75255787037</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="11">
   <si>
     <t>Fecha</t>
   </si>
@@ -1245,6 +1245,61 @@
         <v>7</v>
       </c>
     </row>
+    <row r="86">
+      <c r="A86" s="2">
+        <v>45878.78099537037</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2">
+        <v>45881.94194444444</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2">
+        <v>45879.503703703704</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2">
+        <v>45879.79789351852</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2">
+        <v>45878.75255787037</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="11">
   <si>
     <t>Fecha</t>
   </si>
@@ -1300,6 +1300,61 @@
         <v>7</v>
       </c>
     </row>
+    <row r="91">
+      <c r="A91" s="2">
+        <v>45878.78099537037</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2">
+        <v>45881.94194444444</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2">
+        <v>45879.503703703704</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2">
+        <v>45879.79789351852</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2">
+        <v>45878.75255787037</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="11">
   <si>
     <t>Fecha</t>
   </si>
@@ -1355,6 +1355,116 @@
         <v>7</v>
       </c>
     </row>
+    <row r="96">
+      <c r="A96" s="2">
+        <v>45878.78099537037</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2">
+        <v>45881.94194444444</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2">
+        <v>45879.503703703704</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2">
+        <v>45879.79789351852</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2">
+        <v>45878.75255787037</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2">
+        <v>45878.78099537037</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2">
+        <v>45881.94194444444</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2">
+        <v>45879.503703703704</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2">
+        <v>45879.79789351852</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2">
+        <v>45878.75255787037</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Fecha</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>Julio S Aparicio E</t>
+  </si>
+  <si>
+    <t>Melecio G Rodriguez M</t>
+  </si>
+  <si>
+    <t>S/ 1.20</t>
   </si>
 </sst>
 </file>
@@ -359,6 +365,61 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>45878.78099537037</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>45881.94194444444</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <v>45879.503703703704</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2">
+        <v>45879.79789351852</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <v>45878.75255787037</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t>Fecha</t>
   </si>
@@ -420,6 +420,61 @@
         <v>7</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <v>45878.78099537037</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <v>45881.94194444444</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2">
+        <v>45879.503703703704</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2">
+        <v>45879.79789351852</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2">
+        <v>45878.75255787037</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="11">
   <si>
     <t>Fecha</t>
   </si>
@@ -475,6 +475,61 @@
         <v>7</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="2">
+        <v>45878.78099537037</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2">
+        <v>45881.94194444444</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2">
+        <v>45879.503703703704</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2">
+        <v>45879.79789351852</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2">
+        <v>45878.75255787037</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="11">
   <si>
     <t>Fecha</t>
   </si>
@@ -530,6 +530,61 @@
         <v>7</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="2">
+        <v>45878.78099537037</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2">
+        <v>45881.94194444444</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2">
+        <v>45879.503703703704</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2">
+        <v>45879.79789351852</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2">
+        <v>45878.75255787037</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="11">
   <si>
     <t>Fecha</t>
   </si>
@@ -585,6 +585,61 @@
         <v>7</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="2">
+        <v>45878.78099537037</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2">
+        <v>45881.94194444444</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2">
+        <v>45879.503703703704</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2">
+        <v>45879.79789351852</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2">
+        <v>45878.75255787037</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="11">
   <si>
     <t>Fecha</t>
   </si>
@@ -640,6 +640,61 @@
         <v>7</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" s="2">
+        <v>45878.78099537037</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2">
+        <v>45881.94194444444</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2">
+        <v>45879.503703703704</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2">
+        <v>45879.79789351852</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2">
+        <v>45878.75255787037</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="11">
   <si>
     <t>Fecha</t>
   </si>
@@ -695,6 +695,61 @@
         <v>7</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" s="2">
+        <v>45878.78099537037</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2">
+        <v>45881.94194444444</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2">
+        <v>45879.503703703704</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2">
+        <v>45879.79789351852</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2">
+        <v>45878.75255787037</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="11">
   <si>
     <t>Fecha</t>
   </si>
@@ -750,6 +750,61 @@
         <v>7</v>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" s="2">
+        <v>45878.78099537037</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2">
+        <v>45881.94194444444</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2">
+        <v>45879.503703703704</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2">
+        <v>45879.79789351852</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2">
+        <v>45878.75255787037</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="11">
   <si>
     <t>Fecha</t>
   </si>
@@ -805,6 +805,61 @@
         <v>7</v>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" s="2">
+        <v>45878.78099537037</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2">
+        <v>45881.94194444444</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2">
+        <v>45879.503703703704</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2">
+        <v>45879.79789351852</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2">
+        <v>45878.75255787037</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="18">
   <si>
     <t>Fecha</t>
   </si>
@@ -44,6 +44,27 @@
   </si>
   <si>
     <t>S/ 1.20</t>
+  </si>
+  <si>
+    <t>S/ 956.09</t>
+  </si>
+  <si>
+    <t>Alejandra S Castillo M</t>
+  </si>
+  <si>
+    <t>S/ 50.00</t>
+  </si>
+  <si>
+    <t>Monica L Morote C</t>
+  </si>
+  <si>
+    <t>S/ 300.00</t>
+  </si>
+  <si>
+    <t>S/ 500.00</t>
+  </si>
+  <si>
+    <t>S/ 16.00</t>
   </si>
 </sst>
 </file>
@@ -860,6 +881,113 @@
         <v>7</v>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" s="2">
+        <v>45878.78099537037</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2">
+        <v>45897.43987268519</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2">
+        <v>45897.44045138889</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2">
+        <v>45897.514085648145</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2">
+        <v>45897.979583333334</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2">
+        <v>45897.98017361111</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2">
+        <v>45881.94194444444</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2">
+        <v>45879.503703703704</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2">
+        <v>45879.79789351852</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2">
+        <v>45878.75255787037</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="18">
   <si>
     <t>Fecha</t>
   </si>
@@ -988,6 +988,113 @@
         <v>7</v>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" s="2">
+        <v>45878.78099537037</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2">
+        <v>45897.43987268519</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2">
+        <v>45897.44045138889</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2">
+        <v>45897.514085648145</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2">
+        <v>45897.979583333334</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2">
+        <v>45897.98017361111</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2">
+        <v>45881.94194444444</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2">
+        <v>45879.503703703704</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2">
+        <v>45879.79789351852</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2">
+        <v>45878.75255787037</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="18">
   <si>
     <t>Fecha</t>
   </si>
@@ -1095,6 +1095,113 @@
         <v>7</v>
       </c>
     </row>
+    <row r="71">
+      <c r="A71" s="2">
+        <v>45878.78099537037</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2">
+        <v>45897.43987268519</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2">
+        <v>45897.44045138889</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2">
+        <v>45897.514085648145</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2">
+        <v>45897.979583333334</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2">
+        <v>45897.98017361111</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2">
+        <v>45881.94194444444</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2">
+        <v>45879.503703703704</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2">
+        <v>45879.79789351852</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2">
+        <v>45878.75255787037</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="18">
   <si>
     <t>Fecha</t>
   </si>
@@ -1202,6 +1202,113 @@
         <v>7</v>
       </c>
     </row>
+    <row r="81">
+      <c r="A81" s="2">
+        <v>45878.78099537037</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2">
+        <v>45897.43987268519</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2">
+        <v>45897.44045138889</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2">
+        <v>45897.514085648145</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2">
+        <v>45897.979583333334</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2">
+        <v>45897.98017361111</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2">
+        <v>45881.94194444444</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2">
+        <v>45879.503703703704</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2">
+        <v>45879.79789351852</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2">
+        <v>45878.75255787037</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="19">
   <si>
     <t>Fecha</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>S/ 16.00</t>
+  </si>
+  <si>
+    <t>S/ 50.51</t>
   </si>
 </sst>
 </file>
@@ -1309,6 +1312,124 @@
         <v>7</v>
       </c>
     </row>
+    <row r="91">
+      <c r="A91" s="2">
+        <v>45878.78099537037</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2">
+        <v>45899.553935185184</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2">
+        <v>45897.43987268519</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2">
+        <v>45897.44045138889</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2">
+        <v>45897.514085648145</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2">
+        <v>45897.979583333334</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2">
+        <v>45897.98017361111</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2">
+        <v>45881.94194444444</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2">
+        <v>45879.503703703704</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2">
+        <v>45879.79789351852</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2">
+        <v>45878.75255787037</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="19">
   <si>
     <t>Fecha</t>
   </si>
@@ -1430,6 +1430,124 @@
         <v>7</v>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" s="2">
+        <v>45878.78099537037</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2">
+        <v>45899.553935185184</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2">
+        <v>45897.43987268519</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2">
+        <v>45897.44045138889</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2">
+        <v>45897.514085648145</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2">
+        <v>45897.979583333334</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2">
+        <v>45897.98017361111</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2">
+        <v>45881.94194444444</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2">
+        <v>45879.503703703704</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2">
+        <v>45879.79789351852</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2">
+        <v>45878.75255787037</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="19">
   <si>
     <t>Fecha</t>
   </si>
@@ -1548,6 +1548,124 @@
         <v>7</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="2">
+        <v>45878.78099537037</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2">
+        <v>45899.553935185184</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2">
+        <v>45897.43987268519</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2">
+        <v>45897.44045138889</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2">
+        <v>45897.514085648145</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2">
+        <v>45897.979583333334</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2">
+        <v>45897.98017361111</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2">
+        <v>45881.94194444444</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2">
+        <v>45879.503703703704</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2">
+        <v>45879.79789351852</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2">
+        <v>45878.75255787037</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="19">
   <si>
     <t>Fecha</t>
   </si>
@@ -1666,6 +1666,124 @@
         <v>7</v>
       </c>
     </row>
+    <row r="124">
+      <c r="A124" s="2">
+        <v>45878.78099537037</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2">
+        <v>45899.553935185184</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2">
+        <v>45897.43987268519</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2">
+        <v>45897.44045138889</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2">
+        <v>45897.514085648145</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2">
+        <v>45897.979583333334</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2">
+        <v>45897.98017361111</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2">
+        <v>45881.94194444444</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2">
+        <v>45879.503703703704</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2">
+        <v>45879.79789351852</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2">
+        <v>45878.75255787037</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="19">
   <si>
     <t>Fecha</t>
   </si>
@@ -1784,6 +1784,124 @@
         <v>7</v>
       </c>
     </row>
+    <row r="135">
+      <c r="A135" s="2">
+        <v>45878.78099537037</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2">
+        <v>45899.553935185184</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2">
+        <v>45897.43987268519</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2">
+        <v>45897.44045138889</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2">
+        <v>45897.514085648145</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2">
+        <v>45897.979583333334</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2">
+        <v>45897.98017361111</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2">
+        <v>45881.94194444444</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2">
+        <v>45879.503703703704</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2">
+        <v>45879.79789351852</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2">
+        <v>45878.75255787037</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="19">
   <si>
     <t>Fecha</t>
   </si>
@@ -1902,6 +1902,124 @@
         <v>7</v>
       </c>
     </row>
+    <row r="146">
+      <c r="A146" s="2">
+        <v>45878.78099537037</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2">
+        <v>45899.553935185184</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2">
+        <v>45897.43987268519</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2">
+        <v>45897.44045138889</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2">
+        <v>45897.514085648145</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2">
+        <v>45897.979583333334</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2">
+        <v>45897.98017361111</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2">
+        <v>45881.94194444444</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2">
+        <v>45879.503703703704</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2">
+        <v>45879.79789351852</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2">
+        <v>45878.75255787037</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
   <si>
     <t>Fecha</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>Julio S Aparicio E</t>
+  </si>
+  <si>
+    <t>Melecio G Rodriguez M</t>
+  </si>
+  <si>
+    <t>S/ 1.20</t>
   </si>
 </sst>
 </file>
@@ -447,37 +453,122 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2">
+        <v>45878.78099537037</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2">
+        <v>45899.553935185184</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2">
+        <v>45897.43987268519</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2">
+        <v>45897.44045138889</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2">
+        <v>45897.514085648145</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="2"/>
+      <c r="A17" s="2">
+        <v>45897.979583333334</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="2"/>
+      <c r="A18" s="2">
+        <v>45897.98017361111</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2">
+        <v>45881.94194444444</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2">
+        <v>45879.503703703704</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="2"/>
+      <c r="A21" s="2">
+        <v>45879.79789351852</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="2"/>
+      <c r="A22" s="2">
+        <v>45878.75255787037</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2"/>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="19">
   <si>
     <t>Fecha</t>
   </si>
@@ -571,37 +571,122 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2"/>
+      <c r="A23" s="2">
+        <v>45878.78099537037</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="2"/>
+      <c r="A24" s="2">
+        <v>45899.553935185184</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="2"/>
+      <c r="A25" s="2">
+        <v>45897.43987268519</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="2"/>
+      <c r="A26" s="2">
+        <v>45897.44045138889</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="2"/>
+      <c r="A27" s="2">
+        <v>45897.514085648145</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="2"/>
+      <c r="A28" s="2">
+        <v>45897.979583333334</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="2"/>
+      <c r="A29" s="2">
+        <v>45897.98017361111</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="2"/>
+      <c r="A30" s="2">
+        <v>45881.94194444444</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="2"/>
+      <c r="A31" s="2">
+        <v>45879.503703703704</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="2"/>
+      <c r="A32" s="2">
+        <v>45879.79789351852</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="2"/>
+      <c r="A33" s="2">
+        <v>45878.75255787037</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2"/>
